--- a/autodock_exp_data/EX1.xlsx
+++ b/autodock_exp_data/EX1.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STUDENT\Desktop\autodock_exp_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ninni\Desktop\exam_test_auto_doc-main\autodock_exp_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB57925-7BC5-400E-90AE-800F0B0FA58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B692B32-5685-48A5-9CF8-893D4B08974B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{ED3E9AA8-8166-4C7F-928B-6705CD1A7A1A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{ED3E9AA8-8166-4C7F-928B-6705CD1A7A1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>ครั้งที่</t>
   </si>
@@ -96,25 +97,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -248,12 +249,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -267,6 +262,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,18 +588,18 @@
       <selection activeCell="A2" sqref="A2:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.3984375" defaultRowHeight="26.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="26.4" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="26.4" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="26.4" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -615,7 +616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="26.4" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -624,7 +625,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="26.4" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -633,7 +634,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="26.4" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -642,7 +643,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="26.4" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -651,7 +652,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="26.4" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -660,7 +661,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="26.4" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -669,7 +670,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="26.4" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -678,7 +679,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="26.4" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -687,7 +688,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="26.4" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -696,7 +697,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="26.4" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -705,7 +706,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="26.4" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -714,7 +715,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="26.4" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -723,7 +724,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="26.4" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -732,7 +733,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="26.4" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -741,7 +742,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="26.4" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -750,7 +751,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="26.4" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -759,7 +760,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="26.4" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -768,7 +769,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="26.4" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -777,7 +778,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="26.4" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -786,7 +787,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="26.4" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -795,7 +796,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="26.4" customHeight="1">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -804,7 +805,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="26.4" customHeight="1">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -813,7 +814,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="26.4" customHeight="1">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -822,7 +823,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="26.4" customHeight="1">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -831,7 +832,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="26.4" customHeight="1">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -840,7 +841,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="26.4" customHeight="1">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -849,7 +850,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="26.4" customHeight="1">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -858,7 +859,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="26.4" customHeight="1">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -867,7 +868,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="26.4" customHeight="1">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -876,7 +877,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="26.4" customHeight="1">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -894,850 +895,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6CA307-CFC3-463D-BF80-DA905A9502C9}">
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="B1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9821CF99-1CB0-47FF-B131-9E750631E52F}">
-  <dimension ref="A1:AE16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>7</v>
-      </c>
-      <c r="J1">
-        <v>8</v>
-      </c>
-      <c r="K1">
-        <v>9</v>
-      </c>
-      <c r="L1">
-        <v>10</v>
-      </c>
-      <c r="M1">
-        <v>11</v>
-      </c>
-      <c r="N1">
-        <v>12</v>
-      </c>
-      <c r="O1">
-        <v>13</v>
-      </c>
-      <c r="P1">
-        <v>14</v>
-      </c>
-      <c r="Q1">
-        <v>15</v>
-      </c>
-      <c r="R1">
-        <v>16</v>
-      </c>
-      <c r="S1">
-        <v>17</v>
-      </c>
-      <c r="T1">
-        <v>18</v>
-      </c>
-      <c r="U1">
-        <v>19</v>
-      </c>
-      <c r="V1">
-        <v>20</v>
-      </c>
-      <c r="W1">
-        <v>21</v>
-      </c>
-      <c r="X1">
-        <v>22</v>
-      </c>
-      <c r="Y1">
-        <v>23</v>
-      </c>
-      <c r="Z1">
-        <v>24</v>
-      </c>
-      <c r="AA1">
-        <v>25</v>
-      </c>
-      <c r="AB1">
-        <v>26</v>
-      </c>
-      <c r="AC1">
-        <v>27</v>
-      </c>
-      <c r="AD1">
-        <v>28</v>
-      </c>
-      <c r="AE1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>1.47993327080736E-2</v>
-      </c>
-      <c r="C2">
-        <v>1.54228890764846E-2</v>
-      </c>
-      <c r="D2">
-        <v>2.2382111279194799E-2</v>
-      </c>
-      <c r="E2">
-        <v>8.7200811958960799E-3</v>
-      </c>
-      <c r="F2">
-        <v>1.2054723242944701E-2</v>
-      </c>
-      <c r="G2">
-        <v>9.4105898205845799E-3</v>
-      </c>
-      <c r="H2">
-        <v>1.46498604199716E-2</v>
-      </c>
-      <c r="I2">
-        <v>1.86202577859053E-2</v>
-      </c>
-      <c r="J2">
-        <v>2.1656339091429801E-2</v>
-      </c>
-      <c r="K2">
-        <v>1.08628306229783E-2</v>
-      </c>
-      <c r="L2">
-        <v>1.76851139169402E-2</v>
-      </c>
-      <c r="M2">
-        <v>1.83788331485659E-2</v>
-      </c>
-      <c r="N2">
-        <v>1.48747536796282E-2</v>
-      </c>
-      <c r="O2">
-        <v>1.6983573530115901E-2</v>
-      </c>
-      <c r="P2">
-        <v>1.6707268295341499E-2</v>
-      </c>
-      <c r="Q2">
-        <v>1.10766260494887E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>-8.9630974634148305E-3</v>
-      </c>
-      <c r="C3">
-        <v>-9.1984455263461207E-3</v>
-      </c>
-      <c r="D3">
-        <v>-9.1335743368327702E-3</v>
-      </c>
-      <c r="E3">
-        <v>-8.9173636852753896E-3</v>
-      </c>
-      <c r="F3">
-        <v>-9.1289375948898806E-3</v>
-      </c>
-      <c r="G3">
-        <v>-9.2427870866503507E-3</v>
-      </c>
-      <c r="H3">
-        <v>-9.0789954016700404E-3</v>
-      </c>
-      <c r="I3">
-        <v>-8.937070569128E-3</v>
-      </c>
-      <c r="J3">
-        <v>-9.2957605003703998E-3</v>
-      </c>
-      <c r="K3">
-        <v>-9.4180041031334E-3</v>
-      </c>
-      <c r="L3">
-        <v>-9.3781834709068708E-3</v>
-      </c>
-      <c r="M3">
-        <v>-9.30502371547735E-3</v>
-      </c>
-      <c r="N3">
-        <v>-9.4907485105946397E-3</v>
-      </c>
-      <c r="O3">
-        <v>-9.77169700325267E-3</v>
-      </c>
-      <c r="P3">
-        <v>-9.4367766761378497E-3</v>
-      </c>
-      <c r="Q3">
-        <v>-9.2386400855340792E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>0.25096798667409798</v>
-      </c>
-      <c r="C4">
-        <v>0.24978115721396801</v>
-      </c>
-      <c r="D4">
-        <v>0.24956144359120799</v>
-      </c>
-      <c r="E4">
-        <v>0.24979176763931299</v>
-      </c>
-      <c r="F4">
-        <v>0.24989159337042</v>
-      </c>
-      <c r="G4">
-        <v>0.24960140022800101</v>
-      </c>
-      <c r="H4">
-        <v>0.24829745374567999</v>
-      </c>
-      <c r="I4">
-        <v>0.24949202079575</v>
-      </c>
-      <c r="J4">
-        <v>0.249069006710291</v>
-      </c>
-      <c r="K4">
-        <v>0.249200608745409</v>
-      </c>
-      <c r="L4">
-        <v>0.249183068094291</v>
-      </c>
-      <c r="M4">
-        <v>0.249024454397552</v>
-      </c>
-      <c r="N4">
-        <v>0.24886998987446199</v>
-      </c>
-      <c r="O4">
-        <v>0.24954826402011401</v>
-      </c>
-      <c r="P4">
-        <v>0.24969841820251301</v>
-      </c>
-      <c r="Q4">
-        <v>0.249053622355872</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>-4.6318446024297896E-3</v>
-      </c>
-      <c r="C5">
-        <v>-1.0106830567244E-3</v>
-      </c>
-      <c r="D5">
-        <v>1.1586709377654301E-2</v>
-      </c>
-      <c r="E5">
-        <v>2.6777795973694399E-3</v>
-      </c>
-      <c r="F5">
-        <v>-2.8266463317944599E-3</v>
-      </c>
-      <c r="G5">
-        <v>2.6438835859668702E-3</v>
-      </c>
-      <c r="H5">
-        <v>1.8997418251967699E-2</v>
-      </c>
-      <c r="I5">
-        <v>-2.9071518413186399E-3</v>
-      </c>
-      <c r="J5">
-        <v>2.2624179468713299E-2</v>
-      </c>
-      <c r="K5">
-        <v>-9.8871168795958294E-4</v>
-      </c>
-      <c r="L5">
-        <v>4.5696099759965697E-3</v>
-      </c>
-      <c r="M5">
-        <v>1.0015461630392601E-2</v>
-      </c>
-      <c r="N5">
-        <v>1.18116944922977E-2</v>
-      </c>
-      <c r="O5">
-        <v>1.35526257375371E-2</v>
-      </c>
-      <c r="P5">
-        <v>2.6777795973694399E-3</v>
-      </c>
-      <c r="Q5">
-        <v>9.9520725071878206E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>0.80396584623739098</v>
-      </c>
-      <c r="C6">
-        <v>0.81199841074719303</v>
-      </c>
-      <c r="D6">
-        <v>0.79878267305322403</v>
-      </c>
-      <c r="E6">
-        <v>0.80598866860686802</v>
-      </c>
-      <c r="F6">
-        <v>0.80598737199772397</v>
-      </c>
-      <c r="G6">
-        <v>0.80198880412037199</v>
-      </c>
-      <c r="H6">
-        <v>0.80242294101107303</v>
-      </c>
-      <c r="I6">
-        <v>0.81498698546183002</v>
-      </c>
-      <c r="J6">
-        <v>0.80218126541100498</v>
-      </c>
-      <c r="K6">
-        <v>0.80499844594404102</v>
-      </c>
-      <c r="L6">
-        <v>0.80996736409676295</v>
-      </c>
-      <c r="M6">
-        <v>0.80584125715277199</v>
-      </c>
-      <c r="N6">
-        <v>0.80477846554550603</v>
-      </c>
-      <c r="O6">
-        <v>0.80270644749647702</v>
-      </c>
-      <c r="P6">
-        <v>0.80598866860686802</v>
-      </c>
-      <c r="Q6">
-        <v>0.80384225789525798</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>0.80298429727554299</v>
-      </c>
-      <c r="C7">
-        <v>0.80539345741271895</v>
-      </c>
-      <c r="D7">
-        <v>0.80593740940093905</v>
-      </c>
-      <c r="E7">
-        <v>0.80847644805908203</v>
-      </c>
-      <c r="F7">
-        <v>0.80797839164733798</v>
-      </c>
-      <c r="G7">
-        <v>0.80847978591918901</v>
-      </c>
-      <c r="H7">
-        <v>0.80064272880554199</v>
-      </c>
-      <c r="I7">
-        <v>0.81264829635620095</v>
-      </c>
-      <c r="J7">
-        <v>0.81055146455764704</v>
-      </c>
-      <c r="K7">
-        <v>0.80913007259368896</v>
-      </c>
-      <c r="L7">
-        <v>0.81247526407241799</v>
-      </c>
-      <c r="M7">
-        <v>0.80565649271011297</v>
-      </c>
-      <c r="N7">
-        <v>0.80437743663787797</v>
-      </c>
-      <c r="O7">
-        <v>0.80579209327697698</v>
-      </c>
-      <c r="P7">
-        <v>0.80522871017455999</v>
-      </c>
-      <c r="Q7">
-        <v>0.80569154024124101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>2.9374060686677599E-3</v>
-      </c>
-      <c r="C8">
-        <v>-8.4385257214307698E-3</v>
-      </c>
-      <c r="D8">
-        <v>-2.1032357588410301E-2</v>
-      </c>
-      <c r="E8">
-        <v>-1.65564776398241E-3</v>
-      </c>
-      <c r="F8">
-        <v>-1.5818595420569099E-3</v>
-      </c>
-      <c r="G8">
-        <v>-2.7970022056251699E-3</v>
-      </c>
-      <c r="H8">
-        <v>-1.0057802312076E-2</v>
-      </c>
-      <c r="I8">
-        <v>-4.47837729007005E-3</v>
-      </c>
-      <c r="J8">
-        <v>-1.5932934358716001E-2</v>
-      </c>
-      <c r="K8">
-        <v>-5.0045398529618903E-4</v>
-      </c>
-      <c r="L8">
-        <v>-6.2480755150318102E-3</v>
-      </c>
-      <c r="M8">
-        <v>-1.0149819776415801E-2</v>
-      </c>
-      <c r="N8">
-        <v>-8.9967409148812294E-3</v>
-      </c>
-      <c r="O8">
-        <v>-1.8133038654923401E-2</v>
-      </c>
-      <c r="P8">
-        <v>-5.0281086005270403E-3</v>
-      </c>
-      <c r="Q8">
-        <v>-6.1714928597211803E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>112</v>
-      </c>
-      <c r="C9">
-        <v>114.00006866455</v>
-      </c>
-      <c r="D9">
-        <v>110.700163841247</v>
-      </c>
-      <c r="E9">
-        <v>113.400085449218</v>
-      </c>
-      <c r="F9">
-        <v>113.50032043457</v>
-      </c>
-      <c r="G9">
-        <v>110.600036621093</v>
-      </c>
-      <c r="H9">
-        <v>113.30006408691401</v>
-      </c>
-      <c r="I9">
-        <v>112.100036621093</v>
-      </c>
-      <c r="J9">
-        <v>110.700050354003</v>
-      </c>
-      <c r="K9">
-        <v>113.60010528564401</v>
-      </c>
-      <c r="L9">
-        <v>115.10015869140599</v>
-      </c>
-      <c r="M9">
-        <v>116.10011291503901</v>
-      </c>
-      <c r="N9">
-        <v>113.200241088867</v>
-      </c>
-      <c r="O9">
-        <v>113.000099182128</v>
-      </c>
-      <c r="P9">
-        <v>115.900520324707</v>
-      </c>
-      <c r="Q9">
-        <v>112.800010681152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Q16" s="4"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D1A5B9-01EA-45FF-A1D4-F299F15B373A}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="24.6" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="31.296875" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" ht="24.6" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:2" ht="24.6" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1745,181 +921,181 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="24.6" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="24.6" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="24.6" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="24.6" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="24.6" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="24.6" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="24.6" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="24.6" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="24.6" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="24.6" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="24.6" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="24.6" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="24.6" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="24.6" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="24.6" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="24.6" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="24.6" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="24.6" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="24.6" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="24.6" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="24.6" customHeight="1">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="24.6" customHeight="1">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="24.6" customHeight="1">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="24.6" customHeight="1">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="24.6" customHeight="1">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="24.6" customHeight="1">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="24.6" customHeight="1">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="24.6" customHeight="1">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="24.6" customHeight="1">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="24.6" customHeight="1">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1934,7 +1110,1359 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6CA307-CFC3-463D-BF80-DA905A9502C9}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9821CF99-1CB0-47FF-B131-9E750631E52F}">
+  <dimension ref="A1:AE16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+      <c r="Z1">
+        <v>24</v>
+      </c>
+      <c r="AA1">
+        <v>25</v>
+      </c>
+      <c r="AB1">
+        <v>26</v>
+      </c>
+      <c r="AC1">
+        <v>27</v>
+      </c>
+      <c r="AD1">
+        <v>28</v>
+      </c>
+      <c r="AE1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1.47993327080736E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.54228890764846E-2</v>
+      </c>
+      <c r="D2">
+        <v>2.2382111279194799E-2</v>
+      </c>
+      <c r="E2">
+        <v>8.7200811958960799E-3</v>
+      </c>
+      <c r="F2">
+        <v>1.2054723242944701E-2</v>
+      </c>
+      <c r="G2">
+        <v>9.4105898205845799E-3</v>
+      </c>
+      <c r="H2">
+        <v>1.46498604199716E-2</v>
+      </c>
+      <c r="I2">
+        <v>1.86202577859053E-2</v>
+      </c>
+      <c r="J2">
+        <v>2.1656339091429801E-2</v>
+      </c>
+      <c r="K2">
+        <v>1.08628306229783E-2</v>
+      </c>
+      <c r="L2">
+        <v>1.76851139169402E-2</v>
+      </c>
+      <c r="M2">
+        <v>1.83788331485659E-2</v>
+      </c>
+      <c r="N2">
+        <v>1.48747536796282E-2</v>
+      </c>
+      <c r="O2">
+        <v>1.6983573530115901E-2</v>
+      </c>
+      <c r="P2">
+        <v>1.6707268295341499E-2</v>
+      </c>
+      <c r="Q2">
+        <v>1.10766260494887E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>-8.9630974634148305E-3</v>
+      </c>
+      <c r="C3">
+        <v>-9.1984455263461207E-3</v>
+      </c>
+      <c r="D3">
+        <v>-9.1335743368327702E-3</v>
+      </c>
+      <c r="E3">
+        <v>-8.9173636852753896E-3</v>
+      </c>
+      <c r="F3">
+        <v>-9.1289375948898806E-3</v>
+      </c>
+      <c r="G3">
+        <v>-9.2427870866503507E-3</v>
+      </c>
+      <c r="H3">
+        <v>-9.0789954016700404E-3</v>
+      </c>
+      <c r="I3">
+        <v>-8.937070569128E-3</v>
+      </c>
+      <c r="J3">
+        <v>-9.2957605003703998E-3</v>
+      </c>
+      <c r="K3">
+        <v>-9.4180041031334E-3</v>
+      </c>
+      <c r="L3">
+        <v>-9.3781834709068708E-3</v>
+      </c>
+      <c r="M3">
+        <v>-9.30502371547735E-3</v>
+      </c>
+      <c r="N3">
+        <v>-9.4907485105946397E-3</v>
+      </c>
+      <c r="O3">
+        <v>-9.77169700325267E-3</v>
+      </c>
+      <c r="P3">
+        <v>-9.4367766761378497E-3</v>
+      </c>
+      <c r="Q3">
+        <v>-9.2386400855340792E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0.25096798667409798</v>
+      </c>
+      <c r="C4">
+        <v>0.24978115721396801</v>
+      </c>
+      <c r="D4">
+        <v>0.24956144359120799</v>
+      </c>
+      <c r="E4">
+        <v>0.24979176763931299</v>
+      </c>
+      <c r="F4">
+        <v>0.24989159337042</v>
+      </c>
+      <c r="G4">
+        <v>0.24960140022800101</v>
+      </c>
+      <c r="H4">
+        <v>0.24829745374567999</v>
+      </c>
+      <c r="I4">
+        <v>0.24949202079575</v>
+      </c>
+      <c r="J4">
+        <v>0.249069006710291</v>
+      </c>
+      <c r="K4">
+        <v>0.249200608745409</v>
+      </c>
+      <c r="L4">
+        <v>0.249183068094291</v>
+      </c>
+      <c r="M4">
+        <v>0.249024454397552</v>
+      </c>
+      <c r="N4">
+        <v>0.24886998987446199</v>
+      </c>
+      <c r="O4">
+        <v>0.24954826402011401</v>
+      </c>
+      <c r="P4">
+        <v>0.24969841820251301</v>
+      </c>
+      <c r="Q4">
+        <v>0.249053622355872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>-4.6318446024297896E-3</v>
+      </c>
+      <c r="C5">
+        <v>-1.0106830567244E-3</v>
+      </c>
+      <c r="D5">
+        <v>1.1586709377654301E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.6777795973694399E-3</v>
+      </c>
+      <c r="F5">
+        <v>-2.8266463317944599E-3</v>
+      </c>
+      <c r="G5">
+        <v>2.6438835859668702E-3</v>
+      </c>
+      <c r="H5">
+        <v>1.8997418251967699E-2</v>
+      </c>
+      <c r="I5">
+        <v>-2.9071518413186399E-3</v>
+      </c>
+      <c r="J5">
+        <v>2.2624179468713299E-2</v>
+      </c>
+      <c r="K5">
+        <v>-9.8871168795958294E-4</v>
+      </c>
+      <c r="L5">
+        <v>4.5696099759965697E-3</v>
+      </c>
+      <c r="M5">
+        <v>1.0015461630392601E-2</v>
+      </c>
+      <c r="N5">
+        <v>1.18116944922977E-2</v>
+      </c>
+      <c r="O5">
+        <v>1.35526257375371E-2</v>
+      </c>
+      <c r="P5">
+        <v>2.6777795973694399E-3</v>
+      </c>
+      <c r="Q5">
+        <v>9.9520725071878206E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="13.2" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0.80396584623739098</v>
+      </c>
+      <c r="C6">
+        <v>0.81199841074719303</v>
+      </c>
+      <c r="D6">
+        <v>0.79878267305322403</v>
+      </c>
+      <c r="E6">
+        <v>0.80598866860686802</v>
+      </c>
+      <c r="F6">
+        <v>0.80598737199772397</v>
+      </c>
+      <c r="G6">
+        <v>0.80198880412037199</v>
+      </c>
+      <c r="H6">
+        <v>0.80242294101107303</v>
+      </c>
+      <c r="I6">
+        <v>0.81498698546183002</v>
+      </c>
+      <c r="J6">
+        <v>0.80218126541100498</v>
+      </c>
+      <c r="K6">
+        <v>0.80499844594404102</v>
+      </c>
+      <c r="L6">
+        <v>0.80996736409676295</v>
+      </c>
+      <c r="M6">
+        <v>0.80584125715277199</v>
+      </c>
+      <c r="N6">
+        <v>0.80477846554550603</v>
+      </c>
+      <c r="O6">
+        <v>0.80270644749647702</v>
+      </c>
+      <c r="P6">
+        <v>0.80598866860686802</v>
+      </c>
+      <c r="Q6">
+        <v>0.80384225789525798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0.80298429727554299</v>
+      </c>
+      <c r="C7">
+        <v>0.80539345741271895</v>
+      </c>
+      <c r="D7">
+        <v>0.80593740940093905</v>
+      </c>
+      <c r="E7">
+        <v>0.80847644805908203</v>
+      </c>
+      <c r="F7">
+        <v>0.80797839164733798</v>
+      </c>
+      <c r="G7">
+        <v>0.80847978591918901</v>
+      </c>
+      <c r="H7">
+        <v>0.80064272880554199</v>
+      </c>
+      <c r="I7">
+        <v>0.81264829635620095</v>
+      </c>
+      <c r="J7">
+        <v>0.81055146455764704</v>
+      </c>
+      <c r="K7">
+        <v>0.80913007259368896</v>
+      </c>
+      <c r="L7">
+        <v>0.81247526407241799</v>
+      </c>
+      <c r="M7">
+        <v>0.80565649271011297</v>
+      </c>
+      <c r="N7">
+        <v>0.80437743663787797</v>
+      </c>
+      <c r="O7">
+        <v>0.80579209327697698</v>
+      </c>
+      <c r="P7">
+        <v>0.80522871017455999</v>
+      </c>
+      <c r="Q7">
+        <v>0.80569154024124101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>2.9374060686677599E-3</v>
+      </c>
+      <c r="C8">
+        <v>-8.4385257214307698E-3</v>
+      </c>
+      <c r="D8">
+        <v>-2.1032357588410301E-2</v>
+      </c>
+      <c r="E8">
+        <v>-1.65564776398241E-3</v>
+      </c>
+      <c r="F8">
+        <v>-1.5818595420569099E-3</v>
+      </c>
+      <c r="G8">
+        <v>-2.7970022056251699E-3</v>
+      </c>
+      <c r="H8">
+        <v>-1.0057802312076E-2</v>
+      </c>
+      <c r="I8">
+        <v>-4.47837729007005E-3</v>
+      </c>
+      <c r="J8">
+        <v>-1.5932934358716001E-2</v>
+      </c>
+      <c r="K8">
+        <v>-5.0045398529618903E-4</v>
+      </c>
+      <c r="L8">
+        <v>-6.2480755150318102E-3</v>
+      </c>
+      <c r="M8">
+        <v>-1.0149819776415801E-2</v>
+      </c>
+      <c r="N8">
+        <v>-8.9967409148812294E-3</v>
+      </c>
+      <c r="O8">
+        <v>-1.8133038654923401E-2</v>
+      </c>
+      <c r="P8">
+        <v>-5.0281086005270403E-3</v>
+      </c>
+      <c r="Q8">
+        <v>-6.1714928597211803E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>112</v>
+      </c>
+      <c r="C9">
+        <v>114.00006866455</v>
+      </c>
+      <c r="D9">
+        <v>110.700163841247</v>
+      </c>
+      <c r="E9">
+        <v>113.400085449218</v>
+      </c>
+      <c r="F9">
+        <v>113.50032043457</v>
+      </c>
+      <c r="G9">
+        <v>110.600036621093</v>
+      </c>
+      <c r="H9">
+        <v>113.30006408691401</v>
+      </c>
+      <c r="I9">
+        <v>112.100036621093</v>
+      </c>
+      <c r="J9">
+        <v>110.700050354003</v>
+      </c>
+      <c r="K9">
+        <v>113.60010528564401</v>
+      </c>
+      <c r="L9">
+        <v>115.10015869140599</v>
+      </c>
+      <c r="M9">
+        <v>116.10011291503901</v>
+      </c>
+      <c r="N9">
+        <v>113.200241088867</v>
+      </c>
+      <c r="O9">
+        <v>113.000099182128</v>
+      </c>
+      <c r="P9">
+        <v>115.900520324707</v>
+      </c>
+      <c r="Q9">
+        <v>112.800010681152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="12" customHeight="1"/>
+    <row r="16" spans="1:31">
+      <c r="Q16" s="4"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F624A2-26E9-4310-913D-24467D3F0D27}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.47993327080736E-2</v>
+      </c>
+      <c r="C2">
+        <v>-8.9630974634148305E-3</v>
+      </c>
+      <c r="D2">
+        <v>0.25096798667409798</v>
+      </c>
+      <c r="E2">
+        <v>-4.6318446024297896E-3</v>
+      </c>
+      <c r="F2">
+        <v>0.80396584623739098</v>
+      </c>
+      <c r="G2">
+        <v>0.80298429727554299</v>
+      </c>
+      <c r="H2">
+        <v>2.9374060686677599E-3</v>
+      </c>
+      <c r="I2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.54228890764846E-2</v>
+      </c>
+      <c r="C3">
+        <v>-9.1984455263461207E-3</v>
+      </c>
+      <c r="D3">
+        <v>0.24978115721396801</v>
+      </c>
+      <c r="E3">
+        <v>-1.0106830567244E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.81199841074719303</v>
+      </c>
+      <c r="G3">
+        <v>0.80539345741271895</v>
+      </c>
+      <c r="H3">
+        <v>-8.4385257214307698E-3</v>
+      </c>
+      <c r="I3">
+        <v>114.00006866455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.2382111279194799E-2</v>
+      </c>
+      <c r="C4">
+        <v>-9.1335743368327702E-3</v>
+      </c>
+      <c r="D4">
+        <v>0.24956144359120799</v>
+      </c>
+      <c r="E4">
+        <v>1.1586709377654301E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.79878267305322403</v>
+      </c>
+      <c r="G4">
+        <v>0.80593740940093905</v>
+      </c>
+      <c r="H4">
+        <v>-2.1032357588410301E-2</v>
+      </c>
+      <c r="I4">
+        <v>110.700163841247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>8.7200811958960799E-3</v>
+      </c>
+      <c r="C5">
+        <v>-8.9173636852753896E-3</v>
+      </c>
+      <c r="D5">
+        <v>0.24979176763931299</v>
+      </c>
+      <c r="E5">
+        <v>2.6777795973694399E-3</v>
+      </c>
+      <c r="F5">
+        <v>0.80598866860686802</v>
+      </c>
+      <c r="G5">
+        <v>0.80847644805908203</v>
+      </c>
+      <c r="H5">
+        <v>-1.65564776398241E-3</v>
+      </c>
+      <c r="I5">
+        <v>113.400085449218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1.2054723242944701E-2</v>
+      </c>
+      <c r="C6">
+        <v>-9.1289375948898806E-3</v>
+      </c>
+      <c r="D6">
+        <v>0.24989159337042</v>
+      </c>
+      <c r="E6">
+        <v>-2.8266463317944599E-3</v>
+      </c>
+      <c r="F6">
+        <v>0.80598737199772397</v>
+      </c>
+      <c r="G6">
+        <v>0.80797839164733798</v>
+      </c>
+      <c r="H6">
+        <v>-1.5818595420569099E-3</v>
+      </c>
+      <c r="I6">
+        <v>113.50032043457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>9.4105898205845799E-3</v>
+      </c>
+      <c r="C7">
+        <v>-9.2427870866503507E-3</v>
+      </c>
+      <c r="D7">
+        <v>0.24960140022800101</v>
+      </c>
+      <c r="E7">
+        <v>2.6438835859668702E-3</v>
+      </c>
+      <c r="F7">
+        <v>0.80198880412037199</v>
+      </c>
+      <c r="G7">
+        <v>0.80847978591918901</v>
+      </c>
+      <c r="H7">
+        <v>-2.7970022056251699E-3</v>
+      </c>
+      <c r="I7">
+        <v>110.600036621093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1.46498604199716E-2</v>
+      </c>
+      <c r="C8">
+        <v>-9.0789954016700404E-3</v>
+      </c>
+      <c r="D8">
+        <v>0.24829745374567999</v>
+      </c>
+      <c r="E8">
+        <v>1.8997418251967699E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.80242294101107303</v>
+      </c>
+      <c r="G8">
+        <v>0.80064272880554199</v>
+      </c>
+      <c r="H8">
+        <v>-1.0057802312076E-2</v>
+      </c>
+      <c r="I8">
+        <v>113.30006408691401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1.86202577859053E-2</v>
+      </c>
+      <c r="C9">
+        <v>-8.937070569128E-3</v>
+      </c>
+      <c r="D9">
+        <v>0.24949202079575</v>
+      </c>
+      <c r="E9">
+        <v>-2.9071518413186399E-3</v>
+      </c>
+      <c r="F9">
+        <v>0.81498698546183002</v>
+      </c>
+      <c r="G9">
+        <v>0.81264829635620095</v>
+      </c>
+      <c r="H9">
+        <v>-4.47837729007005E-3</v>
+      </c>
+      <c r="I9">
+        <v>112.100036621093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2.1656339091429801E-2</v>
+      </c>
+      <c r="C10">
+        <v>-9.2957605003703998E-3</v>
+      </c>
+      <c r="D10">
+        <v>0.249069006710291</v>
+      </c>
+      <c r="E10">
+        <v>2.2624179468713299E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.80218126541100498</v>
+      </c>
+      <c r="G10">
+        <v>0.81055146455764704</v>
+      </c>
+      <c r="H10">
+        <v>-1.5932934358716001E-2</v>
+      </c>
+      <c r="I10">
+        <v>110.700050354003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1.08628306229783E-2</v>
+      </c>
+      <c r="C11">
+        <v>-9.4180041031334E-3</v>
+      </c>
+      <c r="D11">
+        <v>0.249200608745409</v>
+      </c>
+      <c r="E11">
+        <v>-9.8871168795958294E-4</v>
+      </c>
+      <c r="F11">
+        <v>0.80499844594404102</v>
+      </c>
+      <c r="G11">
+        <v>0.80913007259368896</v>
+      </c>
+      <c r="H11">
+        <v>-5.0045398529618903E-4</v>
+      </c>
+      <c r="I11">
+        <v>113.60010528564401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1.76851139169402E-2</v>
+      </c>
+      <c r="C12">
+        <v>-9.3781834709068708E-3</v>
+      </c>
+      <c r="D12">
+        <v>0.249183068094291</v>
+      </c>
+      <c r="E12">
+        <v>4.5696099759965697E-3</v>
+      </c>
+      <c r="F12">
+        <v>0.80996736409676295</v>
+      </c>
+      <c r="G12">
+        <v>0.81247526407241799</v>
+      </c>
+      <c r="H12">
+        <v>-6.2480755150318102E-3</v>
+      </c>
+      <c r="I12">
+        <v>115.10015869140599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1.83788331485659E-2</v>
+      </c>
+      <c r="C13">
+        <v>-9.30502371547735E-3</v>
+      </c>
+      <c r="D13">
+        <v>0.249024454397552</v>
+      </c>
+      <c r="E13">
+        <v>1.0015461630392601E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.80584125715277199</v>
+      </c>
+      <c r="G13">
+        <v>0.80565649271011297</v>
+      </c>
+      <c r="H13">
+        <v>-1.0149819776415801E-2</v>
+      </c>
+      <c r="I13">
+        <v>116.10011291503901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1.48747536796282E-2</v>
+      </c>
+      <c r="C14">
+        <v>-9.4907485105946397E-3</v>
+      </c>
+      <c r="D14">
+        <v>0.24886998987446199</v>
+      </c>
+      <c r="E14">
+        <v>1.18116944922977E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.80477846554550603</v>
+      </c>
+      <c r="G14">
+        <v>0.80437743663787797</v>
+      </c>
+      <c r="H14">
+        <v>-8.9967409148812294E-3</v>
+      </c>
+      <c r="I14">
+        <v>113.200241088867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1.6983573530115901E-2</v>
+      </c>
+      <c r="C15">
+        <v>-9.77169700325267E-3</v>
+      </c>
+      <c r="D15">
+        <v>0.24954826402011401</v>
+      </c>
+      <c r="E15">
+        <v>1.35526257375371E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.80270644749647702</v>
+      </c>
+      <c r="G15">
+        <v>0.80579209327697698</v>
+      </c>
+      <c r="H15">
+        <v>-1.8133038654923401E-2</v>
+      </c>
+      <c r="I15">
+        <v>113.000099182128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1.6707268295341499E-2</v>
+      </c>
+      <c r="C16">
+        <v>-9.4367766761378497E-3</v>
+      </c>
+      <c r="D16">
+        <v>0.24969841820251301</v>
+      </c>
+      <c r="E16">
+        <v>2.6777795973694399E-3</v>
+      </c>
+      <c r="F16">
+        <v>0.80598866860686802</v>
+      </c>
+      <c r="G16">
+        <v>0.80522871017455999</v>
+      </c>
+      <c r="H16">
+        <v>-5.0281086005270403E-3</v>
+      </c>
+      <c r="I16">
+        <v>115.900520324707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1.10766260494887E-2</v>
+      </c>
+      <c r="C17">
+        <v>-9.2386400855340792E-3</v>
+      </c>
+      <c r="D17">
+        <v>0.249053622355872</v>
+      </c>
+      <c r="E17">
+        <v>9.9520725071878206E-3</v>
+      </c>
+      <c r="F17">
+        <v>0.80384225789525798</v>
+      </c>
+      <c r="G17">
+        <v>0.80569154024124101</v>
+      </c>
+      <c r="H17">
+        <v>-6.1714928597211803E-3</v>
+      </c>
+      <c r="I17">
+        <v>112.800010681152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="เอกสาร" ma:contentTypeID="0x010100048724108DE5B24F8461C7983CE88397" ma:contentTypeVersion="12" ma:contentTypeDescription="สร้างเอกสารใหม่" ma:contentTypeScope="" ma:versionID="26f2442d23071453b1e6bfe14474e17c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7c2b395c-873d-40dd-8e83-9f1184c5b45a" xmlns:ns4="e6387645-1a9e-4577-aad9-344de414b181" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ca88095e8626e8283b2a7a1d58d6a0a" ns3:_="" ns4:_="">
     <xsd:import namespace="7c2b395c-873d-40dd-8e83-9f1184c5b45a"/>
@@ -2151,15 +2679,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2167,6 +2686,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7054475-F302-41FD-A77F-2D1F0E203FC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE41FE26-6AA3-4D40-9363-21AC98C7FBAA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2181,14 +2708,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7054475-F302-41FD-A77F-2D1F0E203FC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
